--- a/artfynd/A 6704-2021.xlsx
+++ b/artfynd/A 6704-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813166</v>
+        <v>111813153</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -811,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813153</v>
+        <v>111813166</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,35 +827,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -913,6 +912,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 6704-2021.xlsx
+++ b/artfynd/A 6704-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813153</v>
+        <v>111813166</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -815,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813166</v>
+        <v>111813153</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,30 +823,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -912,7 +913,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 6704-2021.xlsx
+++ b/artfynd/A 6704-2021.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541565.9311770211</v>
+        <v>541566</v>
       </c>
       <c r="R2" t="n">
-        <v>7246380.873881103</v>
+        <v>7246381</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,19 +756,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -859,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541565.9311770211</v>
+        <v>541566</v>
       </c>
       <c r="R3" t="n">
-        <v>7246380.873881103</v>
+        <v>7246381</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -892,19 +882,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 6704-2021.xlsx
+++ b/artfynd/A 6704-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813166</v>
+        <v>111813153</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -767,7 +772,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -801,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813153</v>
+        <v>111813166</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,35 +817,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -893,6 +892,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
